--- a/Taller 1/data/orignal/tasa_deso_sexo.xlsx
+++ b/Taller 1/data/orignal/tasa_deso_sexo.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardmartinez/Dropbox/teaching/Taller de R/GitHub/Clases/Clase 5/data/original/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgeochoa/Documents/Universidad/Taller de R/Talleres-R/Taller 1/data/orignal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17888F38-C1B0-A94C-A58E-A2EA74B35AE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8230C6F0-7177-EA43-ADA5-EF55030A8800}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-6620" windowWidth="38400" windowHeight="21600" xr2:uid="{1F168AC2-EA9B-D441-A490-4A5132B0A781}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{1F168AC2-EA9B-D441-A490-4A5132B0A781}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -23,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="76">
   <si>
     <t>pais</t>
   </si>
@@ -159,6 +158,108 @@
   </si>
   <si>
     <t>América Latina y el Caribe</t>
+  </si>
+  <si>
+    <t>CAQUETÁ</t>
+  </si>
+  <si>
+    <t>CAUCA</t>
+  </si>
+  <si>
+    <t>PUTUMAYO</t>
+  </si>
+  <si>
+    <t>GUAINÍA</t>
+  </si>
+  <si>
+    <t>VICHADA</t>
+  </si>
+  <si>
+    <t>CASANARE</t>
+  </si>
+  <si>
+    <t>AMAZONAS</t>
+  </si>
+  <si>
+    <t>VAUPÉS</t>
+  </si>
+  <si>
+    <t>GUAVIARE</t>
+  </si>
+  <si>
+    <t>CALDAS</t>
+  </si>
+  <si>
+    <t>QUINDIO</t>
+  </si>
+  <si>
+    <t>RISARALDA</t>
+  </si>
+  <si>
+    <t>ANTIOQUIA</t>
+  </si>
+  <si>
+    <t>CHOCÓ</t>
+  </si>
+  <si>
+    <t>NARIÑO</t>
+  </si>
+  <si>
+    <t>CÓRDOBA</t>
+  </si>
+  <si>
+    <t>BOLÍVAR</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>LA GUAJIRA</t>
+  </si>
+  <si>
+    <t>MAGDALENA</t>
+  </si>
+  <si>
+    <t>SUCRE</t>
+  </si>
+  <si>
+    <t>ARAUCA</t>
+  </si>
+  <si>
+    <t>BOYACÁ</t>
+  </si>
+  <si>
+    <t>CUNDINAMARCA</t>
+  </si>
+  <si>
+    <t>BOGOTÁ, D.C.</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>HUILA</t>
+  </si>
+  <si>
+    <t>SANTANDER</t>
+  </si>
+  <si>
+    <t>TOLIMA</t>
+  </si>
+  <si>
+    <t>dpto</t>
+  </si>
+  <si>
+    <t>SAN ANDRÉS</t>
+  </si>
+  <si>
+    <t>N. SANTANDER</t>
+  </si>
+  <si>
+    <t>V. DEL CAUCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLÁNTICO </t>
   </si>
 </sst>
 </file>
@@ -168,7 +269,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,22 +283,31 @@
       <sz val="10"/>
       <color indexed="54"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -232,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -247,6 +357,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -265,7 +376,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -563,13 +674,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A9EC24-3EAB-2A4E-9BA3-CA32CFCAF48B}">
   <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,7 +694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -597,7 +708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -611,7 +722,7 @@
         <v>43.282699999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -625,7 +736,7 @@
         <v>42.702030000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -639,7 +750,7 @@
         <v>43.375</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -653,7 +764,7 @@
         <v>43.375</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -667,7 +778,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -681,7 +792,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -695,7 +806,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -709,7 +820,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -723,7 +834,7 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -737,7 +848,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -751,7 +862,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -765,7 +876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -779,7 +890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -793,7 +904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -807,7 +918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
@@ -821,7 +932,7 @@
         <v>59.93535</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
@@ -835,7 +946,7 @@
         <v>58.806975000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
@@ -849,7 +960,7 @@
         <v>58.864199999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
@@ -863,7 +974,7 @@
         <v>60.976750000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -877,7 +988,7 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
@@ -891,7 +1002,7 @@
         <v>66.400000000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
@@ -905,7 +1016,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
@@ -919,7 +1030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
@@ -933,7 +1044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
@@ -947,7 +1058,7 @@
         <v>56.119779999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
@@ -961,7 +1072,7 @@
         <v>55.371079999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -975,7 +1086,7 @@
         <v>55.018279999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
@@ -989,7 +1100,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
@@ -1003,7 +1114,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
@@ -1017,7 +1128,7 @@
         <v>52.7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
@@ -1031,7 +1142,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
@@ -1045,7 +1156,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
         <v>14</v>
       </c>
@@ -1059,7 +1170,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
@@ -1073,7 +1184,7 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
         <v>16</v>
       </c>
@@ -1087,7 +1198,7 @@
         <v>54.848725000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
         <v>20</v>
       </c>
@@ -1101,7 +1212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
         <v>6</v>
       </c>
@@ -1115,7 +1226,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
@@ -1129,7 +1240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1143,7 +1254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
@@ -1157,7 +1268,7 @@
         <v>40.86352952</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
@@ -1171,7 +1282,7 @@
         <v>39.674644239999999</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
         <v>11</v>
       </c>
@@ -1185,7 +1296,7 @@
         <v>39.724600000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="3" t="s">
         <v>12</v>
       </c>
@@ -1199,7 +1310,7 @@
         <v>41.180724810000001</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
@@ -1213,7 +1324,7 @@
         <v>42.412333859999997</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
         <v>14</v>
       </c>
@@ -1227,7 +1338,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
         <v>15</v>
       </c>
@@ -1241,7 +1352,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
         <v>16</v>
       </c>
@@ -1255,7 +1366,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
         <v>21</v>
       </c>
@@ -1269,7 +1380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
         <v>6</v>
       </c>
@@ -1283,7 +1394,7 @@
         <v>54.937702299999998</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
         <v>7</v>
       </c>
@@ -1297,7 +1408,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
         <v>8</v>
       </c>
@@ -1311,7 +1422,7 @@
         <v>55.535517499999997</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
         <v>9</v>
       </c>
@@ -1325,7 +1436,7 @@
         <v>50.9</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
         <v>10</v>
       </c>
@@ -1339,7 +1450,7 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
         <v>11</v>
       </c>
@@ -1353,7 +1464,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
         <v>12</v>
       </c>
@@ -1367,7 +1478,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
         <v>13</v>
       </c>
@@ -1381,7 +1492,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
         <v>14</v>
       </c>
@@ -1395,7 +1506,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
         <v>15</v>
       </c>
@@ -1409,7 +1520,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="3" t="s">
         <v>16</v>
       </c>
@@ -1423,7 +1534,7 @@
         <v>62.930713320000002</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="3" t="s">
         <v>22</v>
       </c>
@@ -1437,7 +1548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
         <v>6</v>
       </c>
@@ -1451,7 +1562,7 @@
         <v>46.838715800000003</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" s="3" t="s">
         <v>7</v>
       </c>
@@ -1465,7 +1576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" s="3" t="s">
         <v>8</v>
       </c>
@@ -1479,7 +1590,7 @@
         <v>45.490043749999998</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" s="3" t="s">
         <v>9</v>
       </c>
@@ -1493,7 +1604,7 @@
         <v>46.142735799999997</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" s="3" t="s">
         <v>10</v>
       </c>
@@ -1507,7 +1618,7 @@
         <v>46.183323199999997</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" s="3" t="s">
         <v>11</v>
       </c>
@@ -1521,7 +1632,7 @@
         <v>46.413499600000002</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" s="3" t="s">
         <v>12</v>
       </c>
@@ -1535,7 +1646,7 @@
         <v>46.018599999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" s="3" t="s">
         <v>13</v>
       </c>
@@ -1549,7 +1660,7 @@
         <v>44.6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" s="3" t="s">
         <v>14</v>
       </c>
@@ -1563,7 +1674,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" s="3" t="s">
         <v>15</v>
       </c>
@@ -1577,7 +1688,7 @@
         <v>45.08</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" s="3" t="s">
         <v>16</v>
       </c>
@@ -1591,7 +1702,7 @@
         <v>45.715360680000003</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" s="3" t="s">
         <v>23</v>
       </c>
@@ -1605,7 +1716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" s="3" t="s">
         <v>6</v>
       </c>
@@ -1619,7 +1730,7 @@
         <v>36.875279999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" s="3" t="s">
         <v>7</v>
       </c>
@@ -1633,7 +1744,7 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77" s="3" t="s">
         <v>8</v>
       </c>
@@ -1647,7 +1758,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" s="3" t="s">
         <v>9</v>
       </c>
@@ -1661,7 +1772,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" s="3" t="s">
         <v>10</v>
       </c>
@@ -1675,7 +1786,7 @@
         <v>46.1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" s="3" t="s">
         <v>11</v>
       </c>
@@ -1689,7 +1800,7 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81" s="3" t="s">
         <v>12</v>
       </c>
@@ -1703,7 +1814,7 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82" s="3" t="s">
         <v>13</v>
       </c>
@@ -1717,7 +1828,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83" s="3" t="s">
         <v>14</v>
       </c>
@@ -1731,7 +1842,7 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84" s="3" t="s">
         <v>15</v>
       </c>
@@ -1745,7 +1856,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85" s="3" t="s">
         <v>16</v>
       </c>
@@ -1759,7 +1870,7 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86" s="3" t="s">
         <v>24</v>
       </c>
@@ -1773,7 +1884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87" s="3" t="s">
         <v>6</v>
       </c>
@@ -1787,7 +1898,7 @@
         <v>41.941180000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88" s="3" t="s">
         <v>7</v>
       </c>
@@ -1801,7 +1912,7 @@
         <v>43.725000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89" s="3" t="s">
         <v>8</v>
       </c>
@@ -1815,7 +1926,7 @@
         <v>45.180630000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90" s="3" t="s">
         <v>9</v>
       </c>
@@ -1829,7 +1940,7 @@
         <v>46.712000000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91" s="3" t="s">
         <v>10</v>
       </c>
@@ -1843,7 +1954,7 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92" s="3" t="s">
         <v>11</v>
       </c>
@@ -1857,7 +1968,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93" s="3" t="s">
         <v>12</v>
       </c>
@@ -1871,7 +1982,7 @@
         <v>48.297400000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94" s="3" t="s">
         <v>13</v>
       </c>
@@ -1885,7 +1996,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95" s="3" t="s">
         <v>14</v>
       </c>
@@ -1899,7 +2010,7 @@
         <v>47.8</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96" s="3" t="s">
         <v>15</v>
       </c>
@@ -1913,7 +2024,7 @@
         <v>46.965976910000002</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97" s="3" t="s">
         <v>16</v>
       </c>
@@ -1927,7 +2038,7 @@
         <v>45.86988418</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98" s="3" t="s">
         <v>25</v>
       </c>
@@ -1941,7 +2052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4">
       <c r="A99" s="3" t="s">
         <v>6</v>
       </c>
@@ -1955,7 +2066,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4">
       <c r="A100" s="3" t="s">
         <v>7</v>
       </c>
@@ -1969,7 +2080,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4">
       <c r="A101" s="3" t="s">
         <v>8</v>
       </c>
@@ -1983,7 +2094,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4">
       <c r="A102" s="3" t="s">
         <v>9</v>
       </c>
@@ -1997,7 +2108,7 @@
         <v>42.492881599999997</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4">
       <c r="A103" s="3" t="s">
         <v>10</v>
       </c>
@@ -2011,7 +2122,7 @@
         <v>43.135134999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4">
       <c r="A104" s="3" t="s">
         <v>11</v>
       </c>
@@ -2025,7 +2136,7 @@
         <v>43.323856599999999</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4">
       <c r="A105" s="3" t="s">
         <v>12</v>
       </c>
@@ -2039,7 +2150,7 @@
         <v>42.2425</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4">
       <c r="A106" s="3" t="s">
         <v>13</v>
       </c>
@@ -2053,7 +2164,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4">
       <c r="A107" s="3" t="s">
         <v>14</v>
       </c>
@@ -2067,7 +2178,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4">
       <c r="A108" s="3" t="s">
         <v>15</v>
       </c>
@@ -2081,7 +2192,7 @@
         <v>40.693581420000001</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4">
       <c r="A109" s="3" t="s">
         <v>16</v>
       </c>
@@ -2095,7 +2206,7 @@
         <v>42.808343049999998</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4">
       <c r="A110" s="3" t="s">
         <v>26</v>
       </c>
@@ -2109,7 +2220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4">
       <c r="A111" s="3" t="s">
         <v>6</v>
       </c>
@@ -2123,7 +2234,7 @@
         <v>59.78</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4">
       <c r="A112" s="3" t="s">
         <v>7</v>
       </c>
@@ -2137,7 +2248,7 @@
         <v>58.866500000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4">
       <c r="A113" s="3" t="s">
         <v>8</v>
       </c>
@@ -2151,7 +2262,7 @@
         <v>58.39</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4">
       <c r="A114" s="3" t="s">
         <v>9</v>
       </c>
@@ -2165,7 +2276,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4">
       <c r="A115" s="3" t="s">
         <v>10</v>
       </c>
@@ -2179,7 +2290,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4">
       <c r="A116" s="3" t="s">
         <v>11</v>
       </c>
@@ -2193,7 +2304,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4">
       <c r="A117" s="3" t="s">
         <v>12</v>
       </c>
@@ -2207,7 +2318,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4">
       <c r="A118" s="3" t="s">
         <v>13</v>
       </c>
@@ -2221,7 +2332,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4">
       <c r="A119" s="3" t="s">
         <v>14</v>
       </c>
@@ -2235,7 +2346,7 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4">
       <c r="A120" s="3" t="s">
         <v>15</v>
       </c>
@@ -2249,7 +2360,7 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4">
       <c r="A121" s="3" t="s">
         <v>16</v>
       </c>
@@ -2263,7 +2374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4">
       <c r="A122" s="3" t="s">
         <v>27</v>
       </c>
@@ -2277,7 +2388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4">
       <c r="A123" s="3" t="s">
         <v>6</v>
       </c>
@@ -2291,7 +2402,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4">
       <c r="A124" s="3" t="s">
         <v>7</v>
       </c>
@@ -2305,7 +2416,7 @@
         <v>45.859312760000002</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4">
       <c r="A125" s="3" t="s">
         <v>8</v>
       </c>
@@ -2319,7 +2430,7 @@
         <v>45.305092629999997</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4">
       <c r="A126" s="3" t="s">
         <v>9</v>
       </c>
@@ -2333,7 +2444,7 @@
         <v>46.463127890000003</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4">
       <c r="A127" s="3" t="s">
         <v>10</v>
       </c>
@@ -2347,7 +2458,7 @@
         <v>46.552645290000001</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4">
       <c r="A128" s="3" t="s">
         <v>11</v>
       </c>
@@ -2361,7 +2472,7 @@
         <v>45.95089394</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4">
       <c r="A129" s="3" t="s">
         <v>12</v>
       </c>
@@ -2375,7 +2486,7 @@
         <v>49.792826150000003</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4">
       <c r="A130" s="3" t="s">
         <v>13</v>
       </c>
@@ -2389,7 +2500,7 @@
         <v>52.397604549999997</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4">
       <c r="A131" s="3" t="s">
         <v>14</v>
       </c>
@@ -2403,7 +2514,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4">
       <c r="A132" s="3" t="s">
         <v>15</v>
       </c>
@@ -2417,7 +2528,7 @@
         <v>52.236317249999999</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4">
       <c r="A133" s="3" t="s">
         <v>16</v>
       </c>
@@ -2431,7 +2542,7 @@
         <v>52.022058049999998</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4">
       <c r="A134" s="3" t="s">
         <v>28</v>
       </c>
@@ -2445,7 +2556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4">
       <c r="A135" s="3" t="s">
         <v>6</v>
       </c>
@@ -2459,7 +2570,7 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4">
       <c r="A136" s="3" t="s">
         <v>7</v>
       </c>
@@ -2473,7 +2584,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4">
       <c r="A137" s="3" t="s">
         <v>8</v>
       </c>
@@ -2487,7 +2598,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4">
       <c r="A138" s="3" t="s">
         <v>9</v>
       </c>
@@ -2501,7 +2612,7 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4">
       <c r="A139" s="3" t="s">
         <v>10</v>
       </c>
@@ -2515,7 +2626,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4">
       <c r="A140" s="3" t="s">
         <v>11</v>
       </c>
@@ -2529,7 +2640,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4">
       <c r="A141" s="3" t="s">
         <v>12</v>
       </c>
@@ -2543,7 +2654,7 @@
         <v>44.39</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4">
       <c r="A142" s="3" t="s">
         <v>13</v>
       </c>
@@ -2557,7 +2668,7 @@
         <v>44.79</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4">
       <c r="A143" s="3" t="s">
         <v>14</v>
       </c>
@@ -2571,7 +2682,7 @@
         <v>43.9</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4">
       <c r="A144" s="3" t="s">
         <v>15</v>
       </c>
@@ -2585,7 +2696,7 @@
         <v>43.788318969999999</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4">
       <c r="A145" s="3" t="s">
         <v>16</v>
       </c>
@@ -2599,7 +2710,7 @@
         <v>44.011000000000003</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4">
       <c r="A146" s="3" t="s">
         <v>29</v>
       </c>
@@ -2613,7 +2724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4">
       <c r="A147" s="3" t="s">
         <v>6</v>
       </c>
@@ -2627,7 +2738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4">
       <c r="A148" s="3" t="s">
         <v>7</v>
       </c>
@@ -2641,7 +2752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4">
       <c r="A149" s="3" t="s">
         <v>8</v>
       </c>
@@ -2655,7 +2766,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4">
       <c r="A150" s="3" t="s">
         <v>9</v>
       </c>
@@ -2669,7 +2780,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4">
       <c r="A151" s="3" t="s">
         <v>10</v>
       </c>
@@ -2683,7 +2794,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4">
       <c r="A152" s="3" t="s">
         <v>11</v>
       </c>
@@ -2697,7 +2808,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4">
       <c r="A153" s="3" t="s">
         <v>12</v>
       </c>
@@ -2711,7 +2822,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4">
       <c r="A154" s="3" t="s">
         <v>13</v>
       </c>
@@ -2725,7 +2836,7 @@
         <v>38.256273970000002</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4">
       <c r="A155" s="3" t="s">
         <v>14</v>
       </c>
@@ -2739,7 +2850,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4">
       <c r="A156" s="3" t="s">
         <v>15</v>
       </c>
@@ -2753,7 +2864,7 @@
         <v>38.01</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4">
       <c r="A157" s="3" t="s">
         <v>16</v>
       </c>
@@ -2767,7 +2878,7 @@
         <v>35.659999999999997</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4">
       <c r="A158" s="3" t="s">
         <v>30</v>
       </c>
@@ -2781,7 +2892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4">
       <c r="A159" s="3" t="s">
         <v>6</v>
       </c>
@@ -2795,7 +2906,7 @@
         <v>34.42</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4">
       <c r="A160" s="3" t="s">
         <v>7</v>
       </c>
@@ -2809,7 +2920,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4">
       <c r="A161" s="3" t="s">
         <v>8</v>
       </c>
@@ -2823,7 +2934,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4">
       <c r="A162" s="3" t="s">
         <v>9</v>
       </c>
@@ -2837,7 +2948,7 @@
         <v>32.167659999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4">
       <c r="A163" s="3" t="s">
         <v>10</v>
       </c>
@@ -2851,7 +2962,7 @@
         <v>35.311079999999997</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4">
       <c r="A164" s="3" t="s">
         <v>11</v>
       </c>
@@ -2865,7 +2976,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4">
       <c r="A165" s="3" t="s">
         <v>12</v>
       </c>
@@ -2879,7 +2990,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4">
       <c r="A166" s="3" t="s">
         <v>13</v>
       </c>
@@ -2893,7 +3004,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4">
       <c r="A167" s="3" t="s">
         <v>14</v>
       </c>
@@ -2907,7 +3018,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4">
       <c r="A168" s="3" t="s">
         <v>15</v>
       </c>
@@ -2921,7 +3032,7 @@
         <v>42.575365810000001</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4">
       <c r="A169" s="3" t="s">
         <v>16</v>
       </c>
@@ -2935,7 +3046,7 @@
         <v>38.027311449999999</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4">
       <c r="A170" s="3" t="s">
         <v>31</v>
       </c>
@@ -2949,7 +3060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4">
       <c r="A171" s="3" t="s">
         <v>6</v>
       </c>
@@ -2963,7 +3074,7 @@
         <v>47.445</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4">
       <c r="A172" s="3" t="s">
         <v>7</v>
       </c>
@@ -2977,7 +3088,7 @@
         <v>45.906230000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4">
       <c r="A173" s="3" t="s">
         <v>8</v>
       </c>
@@ -2991,7 +3102,7 @@
         <v>45.730469999999997</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4">
       <c r="A174" s="3" t="s">
         <v>9</v>
       </c>
@@ -3005,7 +3116,7 @@
         <v>44.961829999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4">
       <c r="A175" s="3" t="s">
         <v>10</v>
       </c>
@@ -3019,7 +3130,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4">
       <c r="A176" s="3" t="s">
         <v>11</v>
       </c>
@@ -3033,7 +3144,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4">
       <c r="A177" s="3" t="s">
         <v>12</v>
       </c>
@@ -3047,7 +3158,7 @@
         <v>46.1922</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4">
       <c r="A178" s="3" t="s">
         <v>13</v>
       </c>
@@ -3061,7 +3172,7 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4">
       <c r="A179" s="3" t="s">
         <v>14</v>
       </c>
@@ -3075,7 +3186,7 @@
         <v>50.024999999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4">
       <c r="A180" s="3" t="s">
         <v>15</v>
       </c>
@@ -3089,7 +3200,7 @@
         <v>51.125</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4">
       <c r="A181" s="3" t="s">
         <v>16</v>
       </c>
@@ -3103,7 +3214,7 @@
         <v>52.65</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4">
       <c r="A182" s="3" t="s">
         <v>32</v>
       </c>
@@ -3117,7 +3228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4">
       <c r="A183" s="3" t="s">
         <v>6</v>
       </c>
@@ -3131,7 +3242,7 @@
         <v>40.46863389</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4">
       <c r="A184" s="3" t="s">
         <v>7</v>
       </c>
@@ -3145,7 +3256,7 @@
         <v>40.31150409</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4">
       <c r="A185" s="3" t="s">
         <v>8</v>
       </c>
@@ -3159,7 +3270,7 @@
         <v>40.6358721</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4">
       <c r="A186" s="3" t="s">
         <v>9</v>
       </c>
@@ -3173,7 +3284,7 @@
         <v>41.697302209999997</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4">
       <c r="A187" s="3" t="s">
         <v>10</v>
       </c>
@@ -3187,7 +3298,7 @@
         <v>41.693649999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4">
       <c r="A188" s="3" t="s">
         <v>11</v>
       </c>
@@ -3201,7 +3312,7 @@
         <v>40.954999999999998</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4">
       <c r="A189" s="3" t="s">
         <v>12</v>
       </c>
@@ -3215,7 +3326,7 @@
         <v>41.4131</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4">
       <c r="A190" s="3" t="s">
         <v>13</v>
       </c>
@@ -3229,7 +3340,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4">
       <c r="A191" s="3" t="s">
         <v>14</v>
       </c>
@@ -3243,7 +3354,7 @@
         <v>41.40300414</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4">
       <c r="A192" s="3" t="s">
         <v>15</v>
       </c>
@@ -3257,7 +3368,7 @@
         <v>41.973122230000001</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4">
       <c r="A193" s="3" t="s">
         <v>16</v>
       </c>
@@ -3271,7 +3382,7 @@
         <v>43.130208369999998</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4">
       <c r="A194" s="3" t="s">
         <v>33</v>
       </c>
@@ -3285,7 +3396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4">
       <c r="A195" s="3" t="s">
         <v>6</v>
       </c>
@@ -3299,7 +3410,7 @@
         <v>46.9</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4">
       <c r="A196" s="3" t="s">
         <v>7</v>
       </c>
@@ -3313,7 +3424,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4">
       <c r="A197" s="3" t="s">
         <v>8</v>
       </c>
@@ -3327,7 +3438,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4">
       <c r="A198" s="3" t="s">
         <v>9</v>
       </c>
@@ -3341,7 +3452,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4">
       <c r="A199" s="3" t="s">
         <v>10</v>
       </c>
@@ -3355,7 +3466,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4">
       <c r="A200" s="3" t="s">
         <v>11</v>
       </c>
@@ -3369,7 +3480,7 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4">
       <c r="A201" s="3" t="s">
         <v>12</v>
       </c>
@@ -3383,7 +3494,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4">
       <c r="A202" s="3" t="s">
         <v>13</v>
       </c>
@@ -3397,7 +3508,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4">
       <c r="A203" s="3" t="s">
         <v>14</v>
       </c>
@@ -3411,7 +3522,7 @@
         <v>60.85</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4">
       <c r="A204" s="3" t="s">
         <v>15</v>
       </c>
@@ -3425,7 +3536,7 @@
         <v>58.25</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4">
       <c r="A205" s="3" t="s">
         <v>16</v>
       </c>
@@ -3439,7 +3550,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4">
       <c r="A206" s="3" t="s">
         <v>34</v>
       </c>
@@ -3453,7 +3564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4">
       <c r="A207" s="3" t="s">
         <v>6</v>
       </c>
@@ -3467,7 +3578,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4">
       <c r="A208" s="3" t="s">
         <v>7</v>
       </c>
@@ -3481,7 +3592,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4">
       <c r="A209" s="3" t="s">
         <v>8</v>
       </c>
@@ -3495,7 +3606,7 @@
         <v>43.533949999999997</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4">
       <c r="A210" s="3" t="s">
         <v>9</v>
       </c>
@@ -3509,7 +3620,7 @@
         <v>45.653860000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4">
       <c r="A211" s="3" t="s">
         <v>10</v>
       </c>
@@ -3523,7 +3634,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4">
       <c r="A212" s="3" t="s">
         <v>11</v>
       </c>
@@ -3537,7 +3648,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4">
       <c r="A213" s="3" t="s">
         <v>12</v>
       </c>
@@ -3551,7 +3662,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4">
       <c r="A214" s="3" t="s">
         <v>13</v>
       </c>
@@ -3565,7 +3676,7 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4">
       <c r="A215" s="3" t="s">
         <v>14</v>
       </c>
@@ -3579,7 +3690,7 @@
         <v>47.21</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4">
       <c r="A216" s="3" t="s">
         <v>15</v>
       </c>
@@ -3593,7 +3704,7 @@
         <v>48.84</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4">
       <c r="A217" s="3" t="s">
         <v>16</v>
       </c>
@@ -3607,7 +3718,7 @@
         <v>50.192083019999998</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4">
       <c r="A218" s="3" t="s">
         <v>35</v>
       </c>
@@ -3621,7 +3732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4">
       <c r="A219" s="3" t="s">
         <v>6</v>
       </c>
@@ -3635,7 +3746,7 @@
         <v>45.685010949999999</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4">
       <c r="A220" s="3" t="s">
         <v>7</v>
       </c>
@@ -3649,7 +3760,7 @@
         <v>43.877603290000003</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4">
       <c r="A221" s="3" t="s">
         <v>8</v>
       </c>
@@ -3663,7 +3774,7 @@
         <v>45.4354309</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4">
       <c r="A222" s="3" t="s">
         <v>9</v>
       </c>
@@ -3677,7 +3788,7 @@
         <v>50.61175867</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4">
       <c r="A223" s="3" t="s">
         <v>10</v>
       </c>
@@ -3691,7 +3802,7 @@
         <v>49.658759070000002</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4">
       <c r="A224" s="3" t="s">
         <v>11</v>
       </c>
@@ -3705,7 +3816,7 @@
         <v>46.009199500000001</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4">
       <c r="A225" s="3" t="s">
         <v>12</v>
       </c>
@@ -3719,7 +3830,7 @@
         <v>47.150049420000002</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4">
       <c r="A226" s="3" t="s">
         <v>13</v>
       </c>
@@ -3733,7 +3844,7 @@
         <v>46.971991240000001</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4">
       <c r="A227" s="3" t="s">
         <v>14</v>
       </c>
@@ -3747,7 +3858,7 @@
         <v>53.375</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4">
       <c r="A228" s="3" t="s">
         <v>15</v>
       </c>
@@ -3761,7 +3872,7 @@
         <v>54.980052989999997</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4">
       <c r="A229" s="3" t="s">
         <v>16</v>
       </c>
@@ -3775,7 +3886,7 @@
         <v>55.348503090000001</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4">
       <c r="A230" s="3" t="s">
         <v>36</v>
       </c>
@@ -3789,7 +3900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4">
       <c r="A231" s="3" t="s">
         <v>6</v>
       </c>
@@ -3803,7 +3914,7 @@
         <v>61.948577700000001</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4">
       <c r="A232" s="3" t="s">
         <v>7</v>
       </c>
@@ -3817,7 +3928,7 @@
         <v>62.57536751</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4">
       <c r="A233" s="3" t="s">
         <v>8</v>
       </c>
@@ -3831,7 +3942,7 @@
         <v>62.360609799999999</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4">
       <c r="A234" s="3" t="s">
         <v>9</v>
       </c>
@@ -3845,7 +3956,7 @@
         <v>61.9484779</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4">
       <c r="A235" s="3" t="s">
         <v>10</v>
       </c>
@@ -3859,7 +3970,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4">
       <c r="A236" s="3" t="s">
         <v>11</v>
       </c>
@@ -3873,7 +3984,7 @@
         <v>60.8</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4">
       <c r="A237" s="3" t="s">
         <v>12</v>
       </c>
@@ -3887,7 +3998,7 @@
         <v>60.064799999999998</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4">
       <c r="A238" s="3" t="s">
         <v>13</v>
       </c>
@@ -3901,7 +4012,7 @@
         <v>60.414969999999997</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4">
       <c r="A239" s="3" t="s">
         <v>14</v>
       </c>
@@ -3915,7 +4026,7 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4">
       <c r="A240" s="3" t="s">
         <v>15</v>
       </c>
@@ -3929,7 +4040,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4">
       <c r="A241" s="3" t="s">
         <v>16</v>
       </c>
@@ -3943,7 +4054,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4">
       <c r="A242" s="3" t="s">
         <v>37</v>
       </c>
@@ -3957,7 +4068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4">
       <c r="A243" s="3" t="s">
         <v>6</v>
       </c>
@@ -3971,7 +4082,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4">
       <c r="A244" s="3" t="s">
         <v>7</v>
       </c>
@@ -3985,7 +4096,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4">
       <c r="A245" s="3" t="s">
         <v>8</v>
       </c>
@@ -3999,7 +4110,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4">
       <c r="A246" s="3" t="s">
         <v>9</v>
       </c>
@@ -4013,7 +4124,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4">
       <c r="A247" s="3" t="s">
         <v>10</v>
       </c>
@@ -4027,7 +4138,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4">
       <c r="A248" s="3" t="s">
         <v>11</v>
       </c>
@@ -4041,7 +4152,7 @@
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4">
       <c r="A249" s="3" t="s">
         <v>12</v>
       </c>
@@ -4055,7 +4166,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4">
       <c r="A250" s="3" t="s">
         <v>13</v>
       </c>
@@ -4069,7 +4180,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4">
       <c r="A251" s="3" t="s">
         <v>14</v>
       </c>
@@ -4083,7 +4194,7 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4">
       <c r="A252" s="3" t="s">
         <v>15</v>
       </c>
@@ -4097,7 +4208,7 @@
         <v>45.931914169999999</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4">
       <c r="A253" s="3" t="s">
         <v>16</v>
       </c>
@@ -4111,7 +4222,7 @@
         <v>47.784144089999998</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4">
       <c r="A254" s="3" t="s">
         <v>38</v>
       </c>
@@ -4125,7 +4236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4">
       <c r="A255" s="3" t="s">
         <v>6</v>
       </c>
@@ -4139,7 +4250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4">
       <c r="A256" s="3" t="s">
         <v>7</v>
       </c>
@@ -4153,7 +4264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4">
       <c r="A257" s="3" t="s">
         <v>8</v>
       </c>
@@ -4167,7 +4278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4">
       <c r="A258" s="3" t="s">
         <v>9</v>
       </c>
@@ -4181,7 +4292,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4">
       <c r="A259" s="3" t="s">
         <v>10</v>
       </c>
@@ -4195,7 +4306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4">
       <c r="A260" s="3" t="s">
         <v>11</v>
       </c>
@@ -4209,7 +4320,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4">
       <c r="A261" s="3" t="s">
         <v>12</v>
       </c>
@@ -4223,7 +4334,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4">
       <c r="A262" s="3" t="s">
         <v>13</v>
       </c>
@@ -4237,7 +4348,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4">
       <c r="A263" s="3" t="s">
         <v>14</v>
       </c>
@@ -4251,7 +4362,7 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4">
       <c r="A264" s="3" t="s">
         <v>15</v>
       </c>
@@ -4265,7 +4376,7 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4">
       <c r="A265" s="3" t="s">
         <v>16</v>
       </c>
@@ -4279,7 +4390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4">
       <c r="A266" s="3" t="s">
         <v>39</v>
       </c>
@@ -4293,7 +4404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4">
       <c r="A267" s="3" t="s">
         <v>6</v>
       </c>
@@ -4307,7 +4418,7 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4">
       <c r="A268" s="3" t="s">
         <v>7</v>
       </c>
@@ -4321,7 +4432,7 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4">
       <c r="A269" s="3" t="s">
         <v>8</v>
       </c>
@@ -4335,7 +4446,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4">
       <c r="A270" s="3" t="s">
         <v>9</v>
       </c>
@@ -4349,7 +4460,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4">
       <c r="A271" s="3" t="s">
         <v>10</v>
       </c>
@@ -4363,7 +4474,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4">
       <c r="A272" s="3" t="s">
         <v>11</v>
       </c>
@@ -4377,7 +4488,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4">
       <c r="A273" s="3" t="s">
         <v>12</v>
       </c>
@@ -4391,7 +4502,7 @@
         <v>50.491199999999999</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4">
       <c r="A274" s="3" t="s">
         <v>13</v>
       </c>
@@ -4405,7 +4516,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4">
       <c r="A275" s="3" t="s">
         <v>14</v>
       </c>
@@ -4419,7 +4530,7 @@
         <v>49.799046250000004</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4">
       <c r="A276" s="3" t="s">
         <v>15</v>
       </c>
@@ -4433,7 +4544,7 @@
         <v>49.378127200000002</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4">
       <c r="A277" s="3" t="s">
         <v>16</v>
       </c>
@@ -4447,7 +4558,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4">
       <c r="A278" s="3" t="s">
         <v>40</v>
       </c>
@@ -4461,7 +4572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4">
       <c r="A279" s="3" t="s">
         <v>6</v>
       </c>
@@ -4475,7 +4586,7 @@
         <v>46.589379999999998</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4">
       <c r="A280" s="3" t="s">
         <v>7</v>
       </c>
@@ -4489,7 +4600,7 @@
         <v>45.578940000000003</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4">
       <c r="A281" s="3" t="s">
         <v>8</v>
       </c>
@@ -4503,7 +4614,7 @@
         <v>45.639859999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4">
       <c r="A282" s="3" t="s">
         <v>9</v>
       </c>
@@ -4517,7 +4628,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4">
       <c r="A283" s="3" t="s">
         <v>10</v>
       </c>
@@ -4531,7 +4642,7 @@
         <v>46.1</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4">
       <c r="A284" s="3" t="s">
         <v>11</v>
       </c>
@@ -4545,7 +4656,7 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4">
       <c r="A285" s="3" t="s">
         <v>12</v>
       </c>
@@ -4559,7 +4670,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4">
       <c r="A286" s="3" t="s">
         <v>13</v>
       </c>
@@ -4573,7 +4684,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4">
       <c r="A287" s="3" t="s">
         <v>14</v>
       </c>
@@ -4587,7 +4698,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4">
       <c r="A288" s="3" t="s">
         <v>15</v>
       </c>
@@ -4601,7 +4712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4">
       <c r="A289" s="3" t="s">
         <v>16</v>
       </c>
@@ -4615,7 +4726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4">
       <c r="A290" s="3" t="s">
         <v>41</v>
       </c>
@@ -4629,7 +4740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4">
       <c r="A291" s="3" t="s">
         <v>6</v>
       </c>
@@ -4643,7 +4754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4">
       <c r="A292" s="3" t="s">
         <v>7</v>
       </c>
@@ -4657,7 +4768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4">
       <c r="A293" s="3" t="s">
         <v>8</v>
       </c>
@@ -4671,7 +4782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4">
       <c r="A294" s="3" t="s">
         <v>9</v>
       </c>
@@ -4685,7 +4796,7 @@
         <v>46.005672879999999</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4">
       <c r="A295" s="3" t="s">
         <v>10</v>
       </c>
@@ -4699,7 +4810,7 @@
         <v>45.999249720000002</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4">
       <c r="A296" s="3" t="s">
         <v>11</v>
       </c>
@@ -4713,7 +4824,7 @@
         <v>45.974013550000002</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4">
       <c r="A297" s="3" t="s">
         <v>12</v>
       </c>
@@ -4727,7 +4838,7 @@
         <v>45.811522609999997</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4">
       <c r="A298" s="3" t="s">
         <v>13</v>
       </c>
@@ -4741,7 +4852,7 @@
         <v>45.513163290000001</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4">
       <c r="A299" s="3" t="s">
         <v>14</v>
       </c>
@@ -4755,7 +4866,7 @@
         <v>45.757999609999999</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4">
       <c r="A300" s="3" t="s">
         <v>15</v>
       </c>
@@ -4769,7 +4880,7 @@
         <v>46.136833680000002</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4">
       <c r="A301" s="3" t="s">
         <v>16</v>
       </c>
@@ -4782,6 +4893,296 @@
       <c r="D301" s="4">
         <v>46.550378209999998</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB69244-9692-134C-8011-71C4D6C816D4}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6">
+        <v>86</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6">
+        <v>76</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6">
+        <v>94</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6">
+        <v>99</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6">
+        <v>85</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6">
+        <v>91</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="6">
+        <v>97</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="6">
+        <v>95</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="6">
+        <v>17</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="6">
+        <v>63</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="6">
+        <v>66</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="6">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="6">
+        <v>27</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="6">
+        <v>52</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6">
+        <v>23</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="6">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="6">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="6">
+        <v>44</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6">
+        <v>47</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="6">
+        <v>70</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="6">
+        <v>88</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="6">
+        <v>81</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="6">
+        <v>15</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="6">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="6">
+        <v>54</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="6">
+        <v>11</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="6">
+        <v>50</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="6">
+        <v>41</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="6">
+        <v>68</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="6">
+        <v>73</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="6">
+        <v>8</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
